--- a/Kode/Server2/Logs/lora_node3/2020-05-27.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-27.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7766,6 +7766,7506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>29</v>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>0.4504604076736111</v>
+      </c>
+      <c r="C371" t="n">
+        <v>92</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>30</v>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>0.4511529951157407</v>
+      </c>
+      <c r="C372" t="n">
+        <v>92</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>31</v>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>0.4518502221180556</v>
+      </c>
+      <c r="C373" t="n">
+        <v>92</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>32</v>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>0.4525420921875</v>
+      </c>
+      <c r="C374" t="n">
+        <v>92</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>37</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>0.4560137574074074</v>
+      </c>
+      <c r="C375" t="n">
+        <v>92</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>38</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>0.4567061693402777</v>
+      </c>
+      <c r="C376" t="n">
+        <v>92</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>39</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>0.4574006711342593</v>
+      </c>
+      <c r="C377" t="n">
+        <v>92</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>41</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>0.4587879999189815</v>
+      </c>
+      <c r="C378" t="n">
+        <v>92</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>42</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>0.4594824319791667</v>
+      </c>
+      <c r="C379" t="n">
+        <v>92</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>44</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>0.4608710183680555</v>
+      </c>
+      <c r="C380" t="n">
+        <v>92</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>45</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>0.4615637996527778</v>
+      </c>
+      <c r="C381" t="n">
+        <v>92</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>46</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>0.4622581386226852</v>
+      </c>
+      <c r="C382" t="n">
+        <v>92</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>48</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>0.463647140474537</v>
+      </c>
+      <c r="C383" t="n">
+        <v>92</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>49</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>0.4643417212615741</v>
+      </c>
+      <c r="C384" t="n">
+        <v>92</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>50</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>0.4650350441666667</v>
+      </c>
+      <c r="C385" t="n">
+        <v>92</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>53</v>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>0.4671172865972222</v>
+      </c>
+      <c r="C386" t="n">
+        <v>92</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>55</v>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>0.4685073400347222</v>
+      </c>
+      <c r="C387" t="n">
+        <v>92</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>56</v>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>0.4691995421180555</v>
+      </c>
+      <c r="C388" t="n">
+        <v>92</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>57</v>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>0.4698967197569445</v>
+      </c>
+      <c r="C389" t="n">
+        <v>92</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>58</v>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>0.4705885601388889</v>
+      </c>
+      <c r="C390" t="n">
+        <v>92</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>59</v>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>0.471281444212963</v>
+      </c>
+      <c r="C391" t="n">
+        <v>92</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>60</v>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>0.4719770870138889</v>
+      </c>
+      <c r="C392" t="n">
+        <v>92</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>61</v>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>0.4726719675</v>
+      </c>
+      <c r="C393" t="n">
+        <v>92</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0</v>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>0.4764664807291666</v>
+      </c>
+      <c r="C394" t="n">
+        <v>92</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="E394" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F394" t="n">
+        <v>2.60928</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0</v>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>0.4777975414351852</v>
+      </c>
+      <c r="C395" t="n">
+        <v>92</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E395" t="n">
+        <v>11.685</v>
+      </c>
+      <c r="F395" t="n">
+        <v>22.38846</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1</v>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>0.4784911623148148</v>
+      </c>
+      <c r="C396" t="n">
+        <v>92</v>
+      </c>
+      <c r="D396" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7.109999999999999</v>
+      </c>
+      <c r="F396" t="n">
+        <v>72.37979999999999</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>2</v>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>0.4791855010069445</v>
+      </c>
+      <c r="C397" t="n">
+        <v>92</v>
+      </c>
+      <c r="D397" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="E397" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F397" t="n">
+        <v>60.24480000000001</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>4</v>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>0.4805738696875</v>
+      </c>
+      <c r="C398" t="n">
+        <v>92</v>
+      </c>
+      <c r="D398" t="n">
+        <v>12.476</v>
+      </c>
+      <c r="E398" t="n">
+        <v>4.185</v>
+      </c>
+      <c r="F398" t="n">
+        <v>52.21206</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>6</v>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>0.4819652011342593</v>
+      </c>
+      <c r="C399" t="n">
+        <v>92</v>
+      </c>
+      <c r="D399" t="n">
+        <v>12.588</v>
+      </c>
+      <c r="E399" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F399" t="n">
+        <v>53.62488</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>8</v>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>0.4833502979282407</v>
+      </c>
+      <c r="C400" t="n">
+        <v>92</v>
+      </c>
+      <c r="D400" t="n">
+        <v>12.952</v>
+      </c>
+      <c r="E400" t="n">
+        <v>4.605</v>
+      </c>
+      <c r="F400" t="n">
+        <v>59.64396</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>10</v>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>0.4847415684722223</v>
+      </c>
+      <c r="C401" t="n">
+        <v>92</v>
+      </c>
+      <c r="D401" t="n">
+        <v>13.168</v>
+      </c>
+      <c r="E401" t="n">
+        <v>4.694999999999999</v>
+      </c>
+      <c r="F401" t="n">
+        <v>61.82376</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>15</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>0.4967799002546296</v>
+      </c>
+      <c r="C402" t="n">
+        <v>92</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E402" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.07920000000000001</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>16</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>0.4974738444097222</v>
+      </c>
+      <c r="C403" t="n">
+        <v>92</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E403" t="n">
+        <v>21.435</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.17148</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>18</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>0.4988615954513889</v>
+      </c>
+      <c r="C404" t="n">
+        <v>92</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E404" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.19968</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>19</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>0.4995568569444445</v>
+      </c>
+      <c r="C405" t="n">
+        <v>92</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E405" t="n">
+        <v>32.325</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>20</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>0.5002504455324074</v>
+      </c>
+      <c r="C406" t="n">
+        <v>92</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E406" t="n">
+        <v>25.395</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.20316</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>21</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>0.5009448102662037</v>
+      </c>
+      <c r="C407" t="n">
+        <v>92</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E407" t="n">
+        <v>21.285</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.17028</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>22</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>0.5016405220138889</v>
+      </c>
+      <c r="C408" t="n">
+        <v>92</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E408" t="n">
+        <v>18.885</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.15108</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>24</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>0.5030277223148149</v>
+      </c>
+      <c r="C409" t="n">
+        <v>92</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E409" t="n">
+        <v>14.745</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.11796</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>25</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>0.5037205575925926</v>
+      </c>
+      <c r="C410" t="n">
+        <v>92</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E410" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.09264</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>28</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>0.5058029275115741</v>
+      </c>
+      <c r="C411" t="n">
+        <v>92</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E411" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.03168</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>34</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>0.5099676238425926</v>
+      </c>
+      <c r="C412" t="n">
+        <v>92</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E412" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.09576</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>36</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>0.5113565367129629</v>
+      </c>
+      <c r="C413" t="n">
+        <v>92</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E413" t="n">
+        <v>12.735</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.10188</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>38</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>0.5127436797800926</v>
+      </c>
+      <c r="C414" t="n">
+        <v>92</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E414" t="n">
+        <v>12.045</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.09636</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>39</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>0.5134380074305556</v>
+      </c>
+      <c r="C415" t="n">
+        <v>92</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E415" t="n">
+        <v>11.805</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.04722</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>41</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>0.5148250370949073</v>
+      </c>
+      <c r="C416" t="n">
+        <v>92</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E416" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.05052</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>42</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>0.5155186041666666</v>
+      </c>
+      <c r="C417" t="n">
+        <v>92</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E417" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.10416</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>45</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>0.5176021859375001</v>
+      </c>
+      <c r="C418" t="n">
+        <v>92</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E418" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.04092</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>47</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>0.5189900839930556</v>
+      </c>
+      <c r="C419" t="n">
+        <v>92</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E419" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.03564</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>49</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>0.520378313900463</v>
+      </c>
+      <c r="C420" t="n">
+        <v>92</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E420" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.06888</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>50</v>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>0.5210721343634259</v>
+      </c>
+      <c r="C421" t="n">
+        <v>92</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E421" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.03408</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>51</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>0.5217663865509259</v>
+      </c>
+      <c r="C422" t="n">
+        <v>92</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E422" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.03408</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>52</v>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>0.5224610097685185</v>
+      </c>
+      <c r="C423" t="n">
+        <v>92</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E423" t="n">
+        <v>8.565</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.03426</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>53</v>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>0.5231538432523148</v>
+      </c>
+      <c r="C424" t="n">
+        <v>92</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E424" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>54</v>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>0.5238490528935185</v>
+      </c>
+      <c r="C425" t="n">
+        <v>92</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E425" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.03204</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>55</v>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>0.5245431661805556</v>
+      </c>
+      <c r="C426" t="n">
+        <v>92</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.935</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.03174</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>58</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>0.5266251728587963</v>
+      </c>
+      <c r="C427" t="n">
+        <v>92</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E427" t="n">
+        <v>8.535</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.03414</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>60</v>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>0.5280134566666667</v>
+      </c>
+      <c r="C428" t="n">
+        <v>92</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E428" t="n">
+        <v>9.764999999999999</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.03906</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>61</v>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>0.5287066233796296</v>
+      </c>
+      <c r="C429" t="n">
+        <v>92</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E429" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.04152</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>64</v>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>0.5307905094791667</v>
+      </c>
+      <c r="C430" t="n">
+        <v>92</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E430" t="n">
+        <v>11.175</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>65</v>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>0.5314865964930556</v>
+      </c>
+      <c r="C431" t="n">
+        <v>92</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E431" t="n">
+        <v>13.005</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.10404</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>66</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>0.5321784008912037</v>
+      </c>
+      <c r="C432" t="n">
+        <v>92</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E432" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.12528</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>67</v>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>0.5328713833449075</v>
+      </c>
+      <c r="C433" t="n">
+        <v>92</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E433" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.1392</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>68</v>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>0.5335654382870371</v>
+      </c>
+      <c r="C434" t="n">
+        <v>92</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E434" t="n">
+        <v>18.495</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.14796</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>71</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>0.5356473025347221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>92</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E435" t="n">
+        <v>20.505</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.16404</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>72</v>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>0.5363411612731481</v>
+      </c>
+      <c r="C436" t="n">
+        <v>92</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E436" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.17544</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>73</v>
+      </c>
+      <c r="B437" s="1" t="n">
+        <v>0.5370359435648149</v>
+      </c>
+      <c r="C437" t="n">
+        <v>92</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E437" t="n">
+        <v>23.985</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.19188</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>75</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>0.5384244240509259</v>
+      </c>
+      <c r="C438" t="n">
+        <v>92</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E438" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.21312</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>76</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>0.5391173014236111</v>
+      </c>
+      <c r="C439" t="n">
+        <v>92</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E439" t="n">
+        <v>28.365</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.22692</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>77</v>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>0.5398146110879629</v>
+      </c>
+      <c r="C440" t="n">
+        <v>92</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E440" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.2735999999999999</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>79</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>0.5412012078472221</v>
+      </c>
+      <c r="C441" t="n">
+        <v>92</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E441" t="n">
+        <v>41.415</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.33132</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>84</v>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>0.544669971724537</v>
+      </c>
+      <c r="C442" t="n">
+        <v>92</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E442" t="n">
+        <v>27.345</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.21876</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>87</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>0.5467483590856481</v>
+      </c>
+      <c r="C443" t="n">
+        <v>92</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E443" t="n">
+        <v>31.785</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.25428</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>89</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>0.5481351768518519</v>
+      </c>
+      <c r="C444" t="n">
+        <v>92</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E444" t="n">
+        <v>32.475</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.2598</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>90</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>0.5488284575</v>
+      </c>
+      <c r="C445" t="n">
+        <v>92</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E445" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.24072</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>93</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>0.5509103915046296</v>
+      </c>
+      <c r="C446" t="n">
+        <v>92</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E446" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.13728</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>94</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>0.5516076085763889</v>
+      </c>
+      <c r="C447" t="n">
+        <v>92</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E447" t="n">
+        <v>15.795</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.12636</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>95</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>0.5522987300462963</v>
+      </c>
+      <c r="C448" t="n">
+        <v>92</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E448" t="n">
+        <v>14.205</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.11364</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>99</v>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>0.5550746859259259</v>
+      </c>
+      <c r="C449" t="n">
+        <v>92</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E449" t="n">
+        <v>16.005</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.12804</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>102</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>0.5571584174074075</v>
+      </c>
+      <c r="C450" t="n">
+        <v>92</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E450" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.13392</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>103</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>0.5578516521875</v>
+      </c>
+      <c r="C451" t="n">
+        <v>92</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E451" t="n">
+        <v>16.425</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.1314</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>104</v>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>0.5585445741319445</v>
+      </c>
+      <c r="C452" t="n">
+        <v>92</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E452" t="n">
+        <v>16.365</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.13092</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>105</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>0.5592413535069444</v>
+      </c>
+      <c r="C453" t="n">
+        <v>92</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E453" t="n">
+        <v>16.425</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.06570000000000001</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>108</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>0.5613218669560185</v>
+      </c>
+      <c r="C454" t="n">
+        <v>92</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E454" t="n">
+        <v>20.325</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.1626</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>109</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>0.5620192927430555</v>
+      </c>
+      <c r="C455" t="n">
+        <v>92</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E455" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.19368</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>110</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>0.5627123805555555</v>
+      </c>
+      <c r="C456" t="n">
+        <v>92</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E456" t="n">
+        <v>26.925</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.2154</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>113</v>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>0.5647922945601852</v>
+      </c>
+      <c r="C457" t="n">
+        <v>92</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E457" t="n">
+        <v>28.275</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.2262</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>114</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>0.5654876068634259</v>
+      </c>
+      <c r="C458" t="n">
+        <v>92</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E458" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.2388</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>118</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>0.5682621110995371</v>
+      </c>
+      <c r="C459" t="n">
+        <v>92</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E459" t="n">
+        <v>40.605</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.32484</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>120</v>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>0.5696520521990741</v>
+      </c>
+      <c r="C460" t="n">
+        <v>92</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E460" t="n">
+        <v>31.725</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.2538</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>121</v>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>0.5703446394444445</v>
+      </c>
+      <c r="C461" t="n">
+        <v>92</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E461" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.23328</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>122</v>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>0.5710425040162037</v>
+      </c>
+      <c r="C462" t="n">
+        <v>92</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E462" t="n">
+        <v>26.985</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.21588</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>123</v>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>0.5717346766666667</v>
+      </c>
+      <c r="C463" t="n">
+        <v>92</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E463" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.21072</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>125</v>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>0.5731256814004629</v>
+      </c>
+      <c r="C464" t="n">
+        <v>92</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E464" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.21168</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>126</v>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>0.5738160403240741</v>
+      </c>
+      <c r="C465" t="n">
+        <v>92</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E465" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.21168</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>128</v>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>0.5752045511689815</v>
+      </c>
+      <c r="C466" t="n">
+        <v>92</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E466" t="n">
+        <v>26.535</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.21228</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>137</v>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>0.5814569884143519</v>
+      </c>
+      <c r="C467" t="n">
+        <v>92</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E467" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.3888</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>138</v>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>0.5821439310300925</v>
+      </c>
+      <c r="C468" t="n">
+        <v>92</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E468" t="n">
+        <v>69.17999999999999</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.8301599999999999</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>140</v>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>0.583537648738426</v>
+      </c>
+      <c r="C469" t="n">
+        <v>92</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E469" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1.8672</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>141</v>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>0.5842255836574074</v>
+      </c>
+      <c r="C470" t="n">
+        <v>92</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E470" t="n">
+        <v>125.505</v>
+      </c>
+      <c r="F470" t="n">
+        <v>2.00808</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>142</v>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>0.584922591574074</v>
+      </c>
+      <c r="C471" t="n">
+        <v>92</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E471" t="n">
+        <v>104.505</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1.25406</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>145</v>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>0.5870050972222223</v>
+      </c>
+      <c r="C472" t="n">
+        <v>92</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E472" t="n">
+        <v>101.94</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1.22328</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>146</v>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>0.5876988382175926</v>
+      </c>
+      <c r="C473" t="n">
+        <v>92</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E473" t="n">
+        <v>55.47</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.44376</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>148</v>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>0.5890877178819445</v>
+      </c>
+      <c r="C474" t="n">
+        <v>92</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E474" t="n">
+        <v>149.805</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2.396880000000001</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>149</v>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>0.5897790919907407</v>
+      </c>
+      <c r="C475" t="n">
+        <v>92</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E475" t="n">
+        <v>128.565</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2.05704</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>150</v>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>0.5904762031249999</v>
+      </c>
+      <c r="C476" t="n">
+        <v>92</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E476" t="n">
+        <v>145.215</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2.32344</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>154</v>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>0.593248870324074</v>
+      </c>
+      <c r="C477" t="n">
+        <v>92</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E477" t="n">
+        <v>101.655</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1.21986</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>155</v>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>0.5939431084375</v>
+      </c>
+      <c r="C478" t="n">
+        <v>92</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E478" t="n">
+        <v>58.275</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.4662</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>156</v>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>0.5946373351388889</v>
+      </c>
+      <c r="C479" t="n">
+        <v>92</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E479" t="n">
+        <v>54.98999999999999</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.87984</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>158</v>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>0.596025244363426</v>
+      </c>
+      <c r="C480" t="n">
+        <v>92</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E480" t="n">
+        <v>100.635</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1.61016</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>159</v>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>0.5967192617476852</v>
+      </c>
+      <c r="C481" t="n">
+        <v>92</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E481" t="n">
+        <v>44.48999999999999</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.5338799999999999</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>160</v>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>0.5974129105787037</v>
+      </c>
+      <c r="C482" t="n">
+        <v>92</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E482" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.47664</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>163</v>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>0.599496140162037</v>
+      </c>
+      <c r="C483" t="n">
+        <v>92</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E483" t="n">
+        <v>30.945</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.37134</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>164</v>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>0.6001905856249999</v>
+      </c>
+      <c r="C484" t="n">
+        <v>92</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E484" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.49644</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>165</v>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>0.6008850302314814</v>
+      </c>
+      <c r="C485" t="n">
+        <v>92</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E485" t="n">
+        <v>59.775</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.7173</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>166</v>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>0.6015773286458334</v>
+      </c>
+      <c r="C486" t="n">
+        <v>92</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E486" t="n">
+        <v>84.13499999999999</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.34616</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>167</v>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>0.6022715202777777</v>
+      </c>
+      <c r="C487" t="n">
+        <v>92</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E487" t="n">
+        <v>50.82</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.8131200000000001</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>170</v>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>0.6043545084374999</v>
+      </c>
+      <c r="C488" t="n">
+        <v>92</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E488" t="n">
+        <v>36.285</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.29028</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>173</v>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>0.6064368607870371</v>
+      </c>
+      <c r="C489" t="n">
+        <v>92</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E489" t="n">
+        <v>33.165</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.26532</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>175</v>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>0.6078247215856482</v>
+      </c>
+      <c r="C490" t="n">
+        <v>92</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E490" t="n">
+        <v>29.415</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.23532</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>177</v>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>0.6092131409143519</v>
+      </c>
+      <c r="C491" t="n">
+        <v>92</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E491" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.17424</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>179</v>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>0.6106021336458333</v>
+      </c>
+      <c r="C492" t="n">
+        <v>92</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E492" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="F492" t="n">
+        <v>1.32888</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>180</v>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>0.6112940743518518</v>
+      </c>
+      <c r="C493" t="n">
+        <v>92</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E493" t="n">
+        <v>56.565</v>
+      </c>
+      <c r="F493" t="n">
+        <v>1.81008</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>183</v>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>0.6133773042361111</v>
+      </c>
+      <c r="C494" t="n">
+        <v>92</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E494" t="n">
+        <v>26.985</v>
+      </c>
+      <c r="F494" t="n">
+        <v>1.29528</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>186</v>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>0.6154600015856482</v>
+      </c>
+      <c r="C495" t="n">
+        <v>92</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E495" t="n">
+        <v>31.725</v>
+      </c>
+      <c r="F495" t="n">
+        <v>1.7766</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>187</v>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>0.6161538914699074</v>
+      </c>
+      <c r="C496" t="n">
+        <v>92</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E496" t="n">
+        <v>45.98999999999999</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.8396</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>189</v>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>0.617541369212963</v>
+      </c>
+      <c r="C497" t="n">
+        <v>92</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E497" t="n">
+        <v>39.405</v>
+      </c>
+      <c r="F497" t="n">
+        <v>2.52192</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>190</v>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>0.6182356518055556</v>
+      </c>
+      <c r="C498" t="n">
+        <v>92</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E498" t="n">
+        <v>40.605</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1.13694</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>192</v>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>0.6196235731134259</v>
+      </c>
+      <c r="C499" t="n">
+        <v>92</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E499" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="F499" t="n">
+        <v>4.116</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>193</v>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>0.6203189638078703</v>
+      </c>
+      <c r="C500" t="n">
+        <v>92</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E500" t="n">
+        <v>34.875</v>
+      </c>
+      <c r="F500" t="n">
+        <v>2.3715</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>194</v>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>0.6210125787152778</v>
+      </c>
+      <c r="C501" t="n">
+        <v>92</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E501" t="n">
+        <v>33.795</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1.08144</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>196</v>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>0.6224011905555555</v>
+      </c>
+      <c r="C502" t="n">
+        <v>92</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E502" t="n">
+        <v>38.175</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.2216</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>54</v>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>0.6634271996643519</v>
+      </c>
+      <c r="C503" t="n">
+        <v>92</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E503" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.18648</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>55</v>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>0.664122001412037</v>
+      </c>
+      <c r="C504" t="n">
+        <v>92</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E504" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.24216</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>58</v>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>0.6662039009722223</v>
+      </c>
+      <c r="C505" t="n">
+        <v>92</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E505" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.20832</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>61</v>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>0.6682868623148148</v>
+      </c>
+      <c r="C506" t="n">
+        <v>92</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E506" t="n">
+        <v>27.225</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.2178</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>62</v>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>0.6689813880902777</v>
+      </c>
+      <c r="C507" t="n">
+        <v>92</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E507" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.19512</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>63</v>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>0.6696746077662037</v>
+      </c>
+      <c r="C508" t="n">
+        <v>92</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E508" t="n">
+        <v>19.635</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.15708</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>9</v>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>0.7708564387731481</v>
+      </c>
+      <c r="C509" t="n">
+        <v>92</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E509" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>10</v>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>0.7715516144097223</v>
+      </c>
+      <c r="C510" t="n">
+        <v>92</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E510" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.3456</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>11</v>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>0.7722448541087963</v>
+      </c>
+      <c r="C511" t="n">
+        <v>92</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E511" t="n">
+        <v>8.654999999999999</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.3462</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>12</v>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>0.7729387485185185</v>
+      </c>
+      <c r="C512" t="n">
+        <v>92</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E512" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.336</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>14</v>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>0.7743289558217593</v>
+      </c>
+      <c r="C513" t="n">
+        <v>92</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E513" t="n">
+        <v>7.755</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.27918</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>15</v>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>0.775021300162037</v>
+      </c>
+      <c r="C514" t="n">
+        <v>92</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E514" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.28944</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>16</v>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>0.7757148671875</v>
+      </c>
+      <c r="C515" t="n">
+        <v>92</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E515" t="n">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.29592</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>17</v>
+      </c>
+      <c r="B516" s="1" t="n">
+        <v>0.7764096821643519</v>
+      </c>
+      <c r="C516" t="n">
+        <v>92</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E516" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.29376</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>19</v>
+      </c>
+      <c r="B517" s="1" t="n">
+        <v>0.7777963930092592</v>
+      </c>
+      <c r="C517" t="n">
+        <v>92</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E517" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.28512</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>20</v>
+      </c>
+      <c r="B518" s="1" t="n">
+        <v>0.7784918129050926</v>
+      </c>
+      <c r="C518" t="n">
+        <v>92</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E518" t="n">
+        <v>7.725</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.2781</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>21</v>
+      </c>
+      <c r="B519" s="1" t="n">
+        <v>0.7791845043171297</v>
+      </c>
+      <c r="C519" t="n">
+        <v>92</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E519" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.27972</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>22</v>
+      </c>
+      <c r="B520" s="1" t="n">
+        <v>0.7798811168749999</v>
+      </c>
+      <c r="C520" t="n">
+        <v>92</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E520" t="n">
+        <v>7.935</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.28566</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>23</v>
+      </c>
+      <c r="B521" s="1" t="n">
+        <v>0.7805746929513888</v>
+      </c>
+      <c r="C521" t="n">
+        <v>92</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E521" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.2872800000000001</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>24</v>
+      </c>
+      <c r="B522" s="1" t="n">
+        <v>0.781267417511574</v>
+      </c>
+      <c r="C522" t="n">
+        <v>92</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E522" t="n">
+        <v>8.115</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.2921400000000001</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>25</v>
+      </c>
+      <c r="B523" s="1" t="n">
+        <v>0.7819611864467593</v>
+      </c>
+      <c r="C523" t="n">
+        <v>92</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E523" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>27</v>
+      </c>
+      <c r="B524" s="1" t="n">
+        <v>0.7833481855439814</v>
+      </c>
+      <c r="C524" t="n">
+        <v>92</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E524" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.3336</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>28</v>
+      </c>
+      <c r="B525" s="1" t="n">
+        <v>0.7840421953587963</v>
+      </c>
+      <c r="C525" t="n">
+        <v>92</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E525" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.28944</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>29</v>
+      </c>
+      <c r="B526" s="1" t="n">
+        <v>0.7847382976851851</v>
+      </c>
+      <c r="C526" t="n">
+        <v>92</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E526" t="n">
+        <v>7.904999999999999</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.28458</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>30</v>
+      </c>
+      <c r="B527" s="1" t="n">
+        <v>0.7854311470486112</v>
+      </c>
+      <c r="C527" t="n">
+        <v>92</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E527" t="n">
+        <v>8.025</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.2889</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>31</v>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>0.7861246580439815</v>
+      </c>
+      <c r="C528" t="n">
+        <v>92</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E528" t="n">
+        <v>8.355</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.3342</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>32</v>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>0.7868209703240741</v>
+      </c>
+      <c r="C529" t="n">
+        <v>92</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E529" t="n">
+        <v>8.744999999999999</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.3498</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>33</v>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>0.7875125266203703</v>
+      </c>
+      <c r="C530" t="n">
+        <v>92</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E530" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.40788</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>34</v>
+      </c>
+      <c r="B531" s="1" t="n">
+        <v>0.7882097913194445</v>
+      </c>
+      <c r="C531" t="n">
+        <v>92</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E531" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.43164</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>35</v>
+      </c>
+      <c r="B532" s="1" t="n">
+        <v>0.7889019030324074</v>
+      </c>
+      <c r="C532" t="n">
+        <v>92</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E532" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.44616</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>36</v>
+      </c>
+      <c r="B533" s="1" t="n">
+        <v>0.7895947424768519</v>
+      </c>
+      <c r="C533" t="n">
+        <v>92</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E533" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.49104</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>37</v>
+      </c>
+      <c r="B534" s="1" t="n">
+        <v>0.7902901971527778</v>
+      </c>
+      <c r="C534" t="n">
+        <v>92</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E534" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.49248</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>38</v>
+      </c>
+      <c r="B535" s="1" t="n">
+        <v>0.7909828525347221</v>
+      </c>
+      <c r="C535" t="n">
+        <v>92</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.49104</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>39</v>
+      </c>
+      <c r="B536" s="1" t="n">
+        <v>0.7916779116666666</v>
+      </c>
+      <c r="C536" t="n">
+        <v>92</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.49392</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>40</v>
+      </c>
+      <c r="B537" s="1" t="n">
+        <v>0.7923714202662037</v>
+      </c>
+      <c r="C537" t="n">
+        <v>92</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.50544</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>42</v>
+      </c>
+      <c r="B538" s="1" t="n">
+        <v>0.7937612237268519</v>
+      </c>
+      <c r="C538" t="n">
+        <v>92</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E538" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.5850000000000001</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>43</v>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>0.7944547493981482</v>
+      </c>
+      <c r="C539" t="n">
+        <v>92</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E539" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.58812</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>44</v>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>0.7951484078240741</v>
+      </c>
+      <c r="C540" t="n">
+        <v>92</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E540" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.5896800000000001</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>45</v>
+      </c>
+      <c r="B541" s="1" t="n">
+        <v>0.7958422210300926</v>
+      </c>
+      <c r="C541" t="n">
+        <v>92</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E541" t="n">
+        <v>11.535</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.59982</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>46</v>
+      </c>
+      <c r="B542" s="1" t="n">
+        <v>0.7965397340972222</v>
+      </c>
+      <c r="C542" t="n">
+        <v>92</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E542" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.6045</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>47</v>
+      </c>
+      <c r="B543" s="1" t="n">
+        <v>0.7972319622685184</v>
+      </c>
+      <c r="C543" t="n">
+        <v>92</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E543" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.60372</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>48</v>
+      </c>
+      <c r="B544" s="1" t="n">
+        <v>0.7979246507060186</v>
+      </c>
+      <c r="C544" t="n">
+        <v>92</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E544" t="n">
+        <v>11.445</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.5951400000000001</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>49</v>
+      </c>
+      <c r="B545" s="1" t="n">
+        <v>0.798619457349537</v>
+      </c>
+      <c r="C545" t="n">
+        <v>92</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E545" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.53064</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>52</v>
+      </c>
+      <c r="B546" s="1" t="n">
+        <v>0.8007031799537038</v>
+      </c>
+      <c r="C546" t="n">
+        <v>92</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E546" t="n">
+        <v>10.305</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.4946400000000001</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>53</v>
+      </c>
+      <c r="B547" s="1" t="n">
+        <v>0.8013942306018519</v>
+      </c>
+      <c r="C547" t="n">
+        <v>92</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E547" t="n">
+        <v>10.305</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.45342</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>56</v>
+      </c>
+      <c r="B548" s="1" t="n">
+        <v>0.8034770910069444</v>
+      </c>
+      <c r="C548" t="n">
+        <v>92</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E548" t="n">
+        <v>11.115</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.53352</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>57</v>
+      </c>
+      <c r="B549" s="1" t="n">
+        <v>0.804171407361111</v>
+      </c>
+      <c r="C549" t="n">
+        <v>92</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E549" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.49968</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>58</v>
+      </c>
+      <c r="B550" s="1" t="n">
+        <v>0.8048653135069445</v>
+      </c>
+      <c r="C550" t="n">
+        <v>92</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E550" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.45012</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>59</v>
+      </c>
+      <c r="B551" s="1" t="n">
+        <v>0.8055595410185185</v>
+      </c>
+      <c r="C551" t="n">
+        <v>92</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E551" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.4454999999999999</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>61</v>
+      </c>
+      <c r="B552" s="1" t="n">
+        <v>0.8069477697106482</v>
+      </c>
+      <c r="C552" t="n">
+        <v>92</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E552" t="n">
+        <v>9.525</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.4191</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>63</v>
+      </c>
+      <c r="B553" s="1" t="n">
+        <v>0.808335336886574</v>
+      </c>
+      <c r="C553" t="n">
+        <v>92</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E553" t="n">
+        <v>8.865</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.3546</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>64</v>
+      </c>
+      <c r="B554" s="1" t="n">
+        <v>0.8090291536342593</v>
+      </c>
+      <c r="C554" t="n">
+        <v>92</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E554" t="n">
+        <v>8.654999999999999</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.3462</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>65</v>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>0.8097228216203703</v>
+      </c>
+      <c r="C555" t="n">
+        <v>92</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E555" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.29808</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>66</v>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>0.8104174841203704</v>
+      </c>
+      <c r="C556" t="n">
+        <v>92</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E556" t="n">
+        <v>8.174999999999999</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.2943</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>67</v>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>0.8111107667013889</v>
+      </c>
+      <c r="C557" t="n">
+        <v>92</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E557" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.29322</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>68</v>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>0.8118078448379631</v>
+      </c>
+      <c r="C558" t="n">
+        <v>92</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E558" t="n">
+        <v>7.995</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.28782</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>69</v>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>0.8124994771643518</v>
+      </c>
+      <c r="C559" t="n">
+        <v>92</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E559" t="n">
+        <v>7.815</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.28134</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>70</v>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>0.8131947051273148</v>
+      </c>
+      <c r="C560" t="n">
+        <v>92</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E560" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.3108</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>71</v>
+      </c>
+      <c r="B561" s="1" t="n">
+        <v>0.8138885829513888</v>
+      </c>
+      <c r="C561" t="n">
+        <v>92</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E561" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.3132</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>73</v>
+      </c>
+      <c r="B562" s="1" t="n">
+        <v>0.8152756233796296</v>
+      </c>
+      <c r="C562" t="n">
+        <v>92</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E562" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>76</v>
+      </c>
+      <c r="B563" s="1" t="n">
+        <v>0.817357871238426</v>
+      </c>
+      <c r="C563" t="n">
+        <v>92</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E563" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.35904</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>77</v>
+      </c>
+      <c r="B564" s="1" t="n">
+        <v>0.8180552812962962</v>
+      </c>
+      <c r="C564" t="n">
+        <v>92</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E564" t="n">
+        <v>8.145</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.35838</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>78</v>
+      </c>
+      <c r="B565" s="1" t="n">
+        <v>0.8187440278703704</v>
+      </c>
+      <c r="C565" t="n">
+        <v>92</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E565" t="n">
+        <v>8.459999999999999</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.40608</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>79</v>
+      </c>
+      <c r="B566" s="1" t="n">
+        <v>0.8194352144328704</v>
+      </c>
+      <c r="C566" t="n">
+        <v>92</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E566" t="n">
+        <v>8.549999999999999</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.4103999999999999</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>80</v>
+      </c>
+      <c r="B567" s="1" t="n">
+        <v>0.8201293683796296</v>
+      </c>
+      <c r="C567" t="n">
+        <v>92</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E567" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.4032</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>81</v>
+      </c>
+      <c r="B568" s="1" t="n">
+        <v>0.8208236779050926</v>
+      </c>
+      <c r="C568" t="n">
+        <v>92</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E568" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>82</v>
+      </c>
+      <c r="B569" s="1" t="n">
+        <v>0.8215178079282407</v>
+      </c>
+      <c r="C569" t="n">
+        <v>92</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E569" t="n">
+        <v>8.115</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.35706</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>83</v>
+      </c>
+      <c r="B570" s="1" t="n">
+        <v>0.8222115574074074</v>
+      </c>
+      <c r="C570" t="n">
+        <v>92</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E570" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.35112</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>84</v>
+      </c>
+      <c r="B571" s="1" t="n">
+        <v>0.8229091850578705</v>
+      </c>
+      <c r="C571" t="n">
+        <v>92</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E571" t="n">
+        <v>8.025</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.3531</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>86</v>
+      </c>
+      <c r="B572" s="1" t="n">
+        <v>0.8242934682175926</v>
+      </c>
+      <c r="C572" t="n">
+        <v>92</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E572" t="n">
+        <v>8.115</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.35706</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>87</v>
+      </c>
+      <c r="B573" s="1" t="n">
+        <v>0.8249885564120371</v>
+      </c>
+      <c r="C573" t="n">
+        <v>92</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E573" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.3006</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>88</v>
+      </c>
+      <c r="B574" s="1" t="n">
+        <v>0.8256821679513888</v>
+      </c>
+      <c r="C574" t="n">
+        <v>92</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E574" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.2748</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>89</v>
+      </c>
+      <c r="B575" s="1" t="n">
+        <v>0.8263753637615741</v>
+      </c>
+      <c r="C575" t="n">
+        <v>92</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E575" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.23112</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>90</v>
+      </c>
+      <c r="B576" s="1" t="n">
+        <v>0.8270715366087963</v>
+      </c>
+      <c r="C576" t="n">
+        <v>92</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E576" t="n">
+        <v>6</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>91</v>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>0.8277638083101853</v>
+      </c>
+      <c r="C577" t="n">
+        <v>92</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E577" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.18288</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>92</v>
+      </c>
+      <c r="B578" s="1" t="n">
+        <v>0.8284589661342593</v>
+      </c>
+      <c r="C578" t="n">
+        <v>92</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E578" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.17568</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>93</v>
+      </c>
+      <c r="B579" s="1" t="n">
+        <v>0.8291527170833334</v>
+      </c>
+      <c r="C579" t="n">
+        <v>92</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E579" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>95</v>
+      </c>
+      <c r="B580" s="1" t="n">
+        <v>0.8305414604976852</v>
+      </c>
+      <c r="C580" t="n">
+        <v>92</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E580" t="n">
+        <v>5.955</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.19056</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>98</v>
+      </c>
+      <c r="B581" s="1" t="n">
+        <v>0.83262229</v>
+      </c>
+      <c r="C581" t="n">
+        <v>92</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E581" t="n">
+        <v>6.149999999999999</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.1968</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>100</v>
+      </c>
+      <c r="B582" s="1" t="n">
+        <v>0.8340115069444445</v>
+      </c>
+      <c r="C582" t="n">
+        <v>92</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E582" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.22788</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>101</v>
+      </c>
+      <c r="B583" s="1" t="n">
+        <v>0.8347070303819444</v>
+      </c>
+      <c r="C583" t="n">
+        <v>92</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E583" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.1872</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>108</v>
+      </c>
+      <c r="B584" s="1" t="n">
+        <v>0.8395665696064815</v>
+      </c>
+      <c r="C584" t="n">
+        <v>92</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E584" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.19344</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>109</v>
+      </c>
+      <c r="B585" s="1" t="n">
+        <v>0.8402599459722222</v>
+      </c>
+      <c r="C585" t="n">
+        <v>92</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E585" t="n">
+        <v>6.149999999999999</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.1968</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>110</v>
+      </c>
+      <c r="B586" s="1" t="n">
+        <v>0.8409524568171296</v>
+      </c>
+      <c r="C586" t="n">
+        <v>92</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E586" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.18816</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>111</v>
+      </c>
+      <c r="B587" s="1" t="n">
+        <v>0.8416470321875</v>
+      </c>
+      <c r="C587" t="n">
+        <v>92</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E587" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.19536</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>112</v>
+      </c>
+      <c r="B588" s="1" t="n">
+        <v>0.8423410886342592</v>
+      </c>
+      <c r="C588" t="n">
+        <v>92</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E588" t="n">
+        <v>6.569999999999999</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.21024</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>113</v>
+      </c>
+      <c r="B589" s="1" t="n">
+        <v>0.8430344311226852</v>
+      </c>
+      <c r="C589" t="n">
+        <v>92</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E589" t="n">
+        <v>6.944999999999999</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.25002</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>114</v>
+      </c>
+      <c r="B590" s="1" t="n">
+        <v>0.8437291624652777</v>
+      </c>
+      <c r="C590" t="n">
+        <v>92</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E590" t="n">
+        <v>6.989999999999999</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.25164</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>115</v>
+      </c>
+      <c r="B591" s="1" t="n">
+        <v>0.8444237499305556</v>
+      </c>
+      <c r="C591" t="n">
+        <v>92</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E591" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.21984</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>118</v>
+      </c>
+      <c r="B592" s="1" t="n">
+        <v>0.8465035636689815</v>
+      </c>
+      <c r="C592" t="n">
+        <v>91</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E592" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>119</v>
+      </c>
+      <c r="B593" s="1" t="n">
+        <v>0.8472008757523148</v>
+      </c>
+      <c r="C593" t="n">
+        <v>91</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E593" t="n">
+        <v>5.145</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.14406</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>121</v>
+      </c>
+      <c r="B594" s="1" t="n">
+        <v>0.8485882280208333</v>
+      </c>
+      <c r="C594" t="n">
+        <v>91</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E594" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>123</v>
+      </c>
+      <c r="B595" s="1" t="n">
+        <v>0.8499743443402779</v>
+      </c>
+      <c r="C595" t="n">
+        <v>91</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E595" t="n">
+        <v>4.515</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.10836</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>125</v>
+      </c>
+      <c r="B596" s="1" t="n">
+        <v>0.8513658281018518</v>
+      </c>
+      <c r="C596" t="n">
+        <v>92</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4.515</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.10836</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>126</v>
+      </c>
+      <c r="B597" s="1" t="n">
+        <v>0.8520566033333334</v>
+      </c>
+      <c r="C597" t="n">
+        <v>92</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E597" t="n">
+        <v>4.109999999999999</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.09863999999999999</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>127</v>
+      </c>
+      <c r="B598" s="1" t="n">
+        <v>0.8527515461342593</v>
+      </c>
+      <c r="C598" t="n">
+        <v>91</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E598" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.07830000000000001</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>128</v>
+      </c>
+      <c r="B599" s="1" t="n">
+        <v>0.8534470549189814</v>
+      </c>
+      <c r="C599" t="n">
+        <v>92</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E599" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.09684000000000001</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>129</v>
+      </c>
+      <c r="B600" s="1" t="n">
+        <v>0.8541397941782407</v>
+      </c>
+      <c r="C600" t="n">
+        <v>92</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E600" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.10728</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>130</v>
+      </c>
+      <c r="B601" s="1" t="n">
+        <v>0.8548332193981482</v>
+      </c>
+      <c r="C601" t="n">
+        <v>91</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E601" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.11952</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>131</v>
+      </c>
+      <c r="B602" s="1" t="n">
+        <v>0.8555284855902777</v>
+      </c>
+      <c r="C602" t="n">
+        <v>92</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E602" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.14532</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>132</v>
+      </c>
+      <c r="B603" s="1" t="n">
+        <v>0.8562227640162037</v>
+      </c>
+      <c r="C603" t="n">
+        <v>91</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E603" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.12312</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>134</v>
+      </c>
+      <c r="B604" s="1" t="n">
+        <v>0.8576131526273149</v>
+      </c>
+      <c r="C604" t="n">
+        <v>91</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E604" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.10944</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>135</v>
+      </c>
+      <c r="B605" s="1" t="n">
+        <v>0.8583051532523148</v>
+      </c>
+      <c r="C605" t="n">
+        <v>91</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E605" t="n">
+        <v>4.335</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.10404</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>136</v>
+      </c>
+      <c r="B606" s="1" t="n">
+        <v>0.858998029363426</v>
+      </c>
+      <c r="C606" t="n">
+        <v>91</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E606" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>137</v>
+      </c>
+      <c r="B607" s="1" t="n">
+        <v>0.8596931804282407</v>
+      </c>
+      <c r="C607" t="n">
+        <v>91</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E607" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0.08310000000000001</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>138</v>
+      </c>
+      <c r="B608" s="1" t="n">
+        <v>0.8603876856828705</v>
+      </c>
+      <c r="C608" t="n">
+        <v>91</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E608" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.0819</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>139</v>
+      </c>
+      <c r="B609" s="1" t="n">
+        <v>0.8610809024189814</v>
+      </c>
+      <c r="C609" t="n">
+        <v>91</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E609" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.07920000000000001</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>140</v>
+      </c>
+      <c r="B610" s="1" t="n">
+        <v>0.8617748079861112</v>
+      </c>
+      <c r="C610" t="n">
+        <v>91</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E610" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.07439999999999999</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>141</v>
+      </c>
+      <c r="B611" s="1" t="n">
+        <v>0.8624687109606481</v>
+      </c>
+      <c r="C611" t="n">
+        <v>91</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E611" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.06899999999999999</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>143</v>
+      </c>
+      <c r="B612" s="1" t="n">
+        <v>0.8638564935300925</v>
+      </c>
+      <c r="C612" t="n">
+        <v>91</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E612" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.0654</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>148</v>
+      </c>
+      <c r="B613" s="1" t="n">
+        <v>0.8673251102893518</v>
+      </c>
+      <c r="C613" t="n">
+        <v>91</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E613" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.0654</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>149</v>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>0.8680239946064815</v>
+      </c>
+      <c r="C614" t="n">
+        <v>91</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.04752</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>151</v>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>0.8694082053703703</v>
+      </c>
+      <c r="C615" t="n">
+        <v>91</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.04416</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>152</v>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>0.8701017858796296</v>
+      </c>
+      <c r="C616" t="n">
+        <v>91</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.03936000000000001</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>153</v>
+      </c>
+      <c r="B617" s="1" t="n">
+        <v>0.8707960053009259</v>
+      </c>
+      <c r="C617" t="n">
+        <v>91</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.03552</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>154</v>
+      </c>
+      <c r="B618" s="1" t="n">
+        <v>0.8714897828935185</v>
+      </c>
+      <c r="C618" t="n">
+        <v>91</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.02358</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>155</v>
+      </c>
+      <c r="B619" s="1" t="n">
+        <v>0.8721855564930555</v>
+      </c>
+      <c r="C619" t="n">
+        <v>91</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.0234</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>156</v>
+      </c>
+      <c r="B620" s="1" t="n">
+        <v>0.8728784430902777</v>
+      </c>
+      <c r="C620" t="n">
+        <v>91</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.02592</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>157</v>
+      </c>
+      <c r="B621" s="1" t="n">
+        <v>0.873573442349537</v>
+      </c>
+      <c r="C621" t="n">
+        <v>91</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2.265</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.03624</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>158</v>
+      </c>
+      <c r="B622" s="1" t="n">
+        <v>0.874265718414352</v>
+      </c>
+      <c r="C622" t="n">
+        <v>91</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.03696</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>159</v>
+      </c>
+      <c r="B623" s="1" t="n">
+        <v>0.8749611903587963</v>
+      </c>
+      <c r="C623" t="n">
+        <v>91</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.02376</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>160</v>
+      </c>
+      <c r="B624" s="1" t="n">
+        <v>0.8756558655902777</v>
+      </c>
+      <c r="C624" t="n">
+        <v>91</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.01926</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>161</v>
+      </c>
+      <c r="B625" s="1" t="n">
+        <v>0.8763506210069444</v>
+      </c>
+      <c r="C625" t="n">
+        <v>91</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.0189</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>163</v>
+      </c>
+      <c r="B626" s="1" t="n">
+        <v>0.8777365411458334</v>
+      </c>
+      <c r="C626" t="n">
+        <v>91</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.01566</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>164</v>
+      </c>
+      <c r="B627" s="1" t="n">
+        <v>0.8784299757407408</v>
+      </c>
+      <c r="C627" t="n">
+        <v>91</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.00936</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>166</v>
+      </c>
+      <c r="B628" s="1" t="n">
+        <v>0.8798212473958333</v>
+      </c>
+      <c r="C628" t="n">
+        <v>91</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.008039999999999999</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>167</v>
+      </c>
+      <c r="B629" s="1" t="n">
+        <v>0.8805164245601852</v>
+      </c>
+      <c r="C629" t="n">
+        <v>91</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.007680000000000001</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>168</v>
+      </c>
+      <c r="B630" s="1" t="n">
+        <v>0.8812065395023149</v>
+      </c>
+      <c r="C630" t="n">
+        <v>91</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E630" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>169</v>
+      </c>
+      <c r="B631" s="1" t="n">
+        <v>0.8819015547106481</v>
+      </c>
+      <c r="C631" t="n">
+        <v>91</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.00876</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>170</v>
+      </c>
+      <c r="B632" s="1" t="n">
+        <v>0.8825948886226851</v>
+      </c>
+      <c r="C632" t="n">
+        <v>91</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.00852</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>171</v>
+      </c>
+      <c r="B633" s="1" t="n">
+        <v>0.8832889566203704</v>
+      </c>
+      <c r="C633" t="n">
+        <v>91</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>172</v>
+      </c>
+      <c r="B634" s="1" t="n">
+        <v>0.8839830524305555</v>
+      </c>
+      <c r="C634" t="n">
+        <v>91</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.00744</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>173</v>
+      </c>
+      <c r="B635" s="1" t="n">
+        <v>0.8846764330787038</v>
+      </c>
+      <c r="C635" t="n">
+        <v>91</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.007680000000000001</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>174</v>
+      </c>
+      <c r="B636" s="1" t="n">
+        <v>0.8853711596527779</v>
+      </c>
+      <c r="C636" t="n">
+        <v>91</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>175</v>
+      </c>
+      <c r="B637" s="1" t="n">
+        <v>0.8860661000810185</v>
+      </c>
+      <c r="C637" t="n">
+        <v>91</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>176</v>
+      </c>
+      <c r="B638" s="1" t="n">
+        <v>0.8867593756018518</v>
+      </c>
+      <c r="C638" t="n">
+        <v>91</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>178</v>
+      </c>
+      <c r="B639" s="1" t="n">
+        <v>0.8881479831828704</v>
+      </c>
+      <c r="C639" t="n">
+        <v>91</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.008160000000000001</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>179</v>
+      </c>
+      <c r="B640" s="1" t="n">
+        <v>0.8888413988194444</v>
+      </c>
+      <c r="C640" t="n">
+        <v>91</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.00876</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>181</v>
+      </c>
+      <c r="B641" s="1" t="n">
+        <v>0.8902305488078703</v>
+      </c>
+      <c r="C641" t="n">
+        <v>91</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.00924</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>184</v>
+      </c>
+      <c r="B642" s="1" t="n">
+        <v>0.8923149230208334</v>
+      </c>
+      <c r="C642" t="n">
+        <v>91</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.00876</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>185</v>
+      </c>
+      <c r="B643" s="1" t="n">
+        <v>0.8930071766898148</v>
+      </c>
+      <c r="C643" t="n">
+        <v>91</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.00984</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>186</v>
+      </c>
+      <c r="B644" s="1" t="n">
+        <v>0.8937010207638889</v>
+      </c>
+      <c r="C644" t="n">
+        <v>91</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.00984</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>189</v>
+      </c>
+      <c r="B645" s="1" t="n">
+        <v>0.8957831639004631</v>
+      </c>
+      <c r="C645" t="n">
+        <v>91</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.008279999999999999</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>190</v>
+      </c>
+      <c r="B646" s="1" t="n">
+        <v>0.896476982048611</v>
+      </c>
+      <c r="C646" t="n">
+        <v>91</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.00744</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>192</v>
+      </c>
+      <c r="B647" s="1" t="n">
+        <v>0.8978663002083334</v>
+      </c>
+      <c r="C647" t="n">
+        <v>91</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.00588</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>194</v>
+      </c>
+      <c r="B648" s="1" t="n">
+        <v>0.8992521275462964</v>
+      </c>
+      <c r="C648" t="n">
+        <v>91</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.004919999999999999</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>195</v>
+      </c>
+      <c r="B649" s="1" t="n">
+        <v>0.8999506986574074</v>
+      </c>
+      <c r="C649" t="n">
+        <v>91</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>196</v>
+      </c>
+      <c r="B650" s="1" t="n">
+        <v>0.9006428185185186</v>
+      </c>
+      <c r="C650" t="n">
+        <v>91</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.005279999999999999</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>198</v>
+      </c>
+      <c r="B651" s="1" t="n">
+        <v>0.9020294479166666</v>
+      </c>
+      <c r="C651" t="n">
+        <v>91</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.004919999999999999</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>202</v>
+      </c>
+      <c r="B652" s="1" t="n">
+        <v>0.9048057788194444</v>
+      </c>
+      <c r="C652" t="n">
+        <v>91</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.009480000000000001</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>203</v>
+      </c>
+      <c r="B653" s="1" t="n">
+        <v>0.9055002176736111</v>
+      </c>
+      <c r="C653" t="n">
+        <v>91</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.00936</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>205</v>
+      </c>
+      <c r="B654" s="1" t="n">
+        <v>0.9068880847685185</v>
+      </c>
+      <c r="C654" t="n">
+        <v>91</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.01764</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>209</v>
+      </c>
+      <c r="B655" s="1" t="n">
+        <v>0.909664406550926</v>
+      </c>
+      <c r="C655" t="n">
+        <v>91</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0.02322</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>211</v>
+      </c>
+      <c r="B656" s="1" t="n">
+        <v>0.9110528578009259</v>
+      </c>
+      <c r="C656" t="n">
+        <v>91</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0.02322</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>213</v>
+      </c>
+      <c r="B657" s="1" t="n">
+        <v>0.9124414153356482</v>
+      </c>
+      <c r="C657" t="n">
+        <v>91</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>215</v>
+      </c>
+      <c r="B658" s="1" t="n">
+        <v>0.9138285521064816</v>
+      </c>
+      <c r="C658" t="n">
+        <v>91</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.02088</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>216</v>
+      </c>
+      <c r="B659" s="1" t="n">
+        <v>0.9145256340162038</v>
+      </c>
+      <c r="C659" t="n">
+        <v>91</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.02034</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>217</v>
+      </c>
+      <c r="B660" s="1" t="n">
+        <v>0.9152201545138888</v>
+      </c>
+      <c r="C660" t="n">
+        <v>91</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.0198</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>218</v>
+      </c>
+      <c r="B661" s="1" t="n">
+        <v>0.9159110040740741</v>
+      </c>
+      <c r="C661" t="n">
+        <v>91</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.0198</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>220</v>
+      </c>
+      <c r="B662" s="1" t="n">
+        <v>0.9172994279976852</v>
+      </c>
+      <c r="C662" t="n">
+        <v>91</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.01998</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>222</v>
+      </c>
+      <c r="B663" s="1" t="n">
+        <v>0.9186883121527778</v>
+      </c>
+      <c r="C663" t="n">
+        <v>91</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.0198</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>223</v>
+      </c>
+      <c r="B664" s="1" t="n">
+        <v>0.9193815844212962</v>
+      </c>
+      <c r="C664" t="n">
+        <v>91</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.01962</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>225</v>
+      </c>
+      <c r="B665" s="1" t="n">
+        <v>0.9207698699652777</v>
+      </c>
+      <c r="C665" t="n">
+        <v>91</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.0189</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>226</v>
+      </c>
+      <c r="B666" s="1" t="n">
+        <v>0.9214636764814814</v>
+      </c>
+      <c r="C666" t="n">
+        <v>91</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0.01236</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>227</v>
+      </c>
+      <c r="B667" s="1" t="n">
+        <v>0.9221577250231482</v>
+      </c>
+      <c r="C667" t="n">
+        <v>91</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.01836</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>230</v>
+      </c>
+      <c r="B668" s="1" t="n">
+        <v>0.9242391950578704</v>
+      </c>
+      <c r="C668" t="n">
+        <v>91</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.01128</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>232</v>
+      </c>
+      <c r="B669" s="1" t="n">
+        <v>0.9256282114236112</v>
+      </c>
+      <c r="C669" t="n">
+        <v>91</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.01656</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>233</v>
+      </c>
+      <c r="B670" s="1" t="n">
+        <v>0.9263235735648148</v>
+      </c>
+      <c r="C670" t="n">
+        <v>91</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.01104</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>234</v>
+      </c>
+      <c r="B671" s="1" t="n">
+        <v>0.9270162684837963</v>
+      </c>
+      <c r="C671" t="n">
+        <v>91</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.01104</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>235</v>
+      </c>
+      <c r="B672" s="1" t="n">
+        <v>0.9277117224189814</v>
+      </c>
+      <c r="C672" t="n">
+        <v>91</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.01116</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>236</v>
+      </c>
+      <c r="B673" s="1" t="n">
+        <v>0.9284041441782407</v>
+      </c>
+      <c r="C673" t="n">
+        <v>91</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="F673" t="n">
+        <v>0.01116</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>237</v>
+      </c>
+      <c r="B674" s="1" t="n">
+        <v>0.929098785</v>
+      </c>
+      <c r="C674" t="n">
+        <v>91</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.01128</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>238</v>
+      </c>
+      <c r="B675" s="1" t="n">
+        <v>0.9297929977430556</v>
+      </c>
+      <c r="C675" t="n">
+        <v>91</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.01128</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>240</v>
+      </c>
+      <c r="B676" s="1" t="n">
+        <v>0.931179970138889</v>
+      </c>
+      <c r="C676" t="n">
+        <v>91</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.01164</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>241</v>
+      </c>
+      <c r="B677" s="1" t="n">
+        <v>0.9318774151851851</v>
+      </c>
+      <c r="C677" t="n">
+        <v>91</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.01782</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>243</v>
+      </c>
+      <c r="B678" s="1" t="n">
+        <v>0.9332625547106481</v>
+      </c>
+      <c r="C678" t="n">
+        <v>91</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>244</v>
+      </c>
+      <c r="B679" s="1" t="n">
+        <v>0.9339566122569445</v>
+      </c>
+      <c r="C679" t="n">
+        <v>91</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.01188</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>247</v>
+      </c>
+      <c r="B680" s="1" t="n">
+        <v>0.9360401111574075</v>
+      </c>
+      <c r="C680" t="n">
+        <v>91</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.01128</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>248</v>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>0.9367330487962963</v>
+      </c>
+      <c r="C681" t="n">
+        <v>91</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.01092</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>252</v>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>0.9395098883333333</v>
+      </c>
+      <c r="C682" t="n">
+        <v>91</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.01068</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>253</v>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>0.9402068559143518</v>
+      </c>
+      <c r="C683" t="n">
+        <v>91</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.01032</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>254</v>
+      </c>
+      <c r="B684" s="1" t="n">
+        <v>0.9408999201041666</v>
+      </c>
+      <c r="C684" t="n">
+        <v>91</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.00984</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1</v>
+      </c>
+      <c r="B685" s="1" t="n">
+        <v>0.9422871240277778</v>
+      </c>
+      <c r="C685" t="n">
+        <v>91</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.00852</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>2</v>
+      </c>
+      <c r="B686" s="1" t="n">
+        <v>0.9429823636111112</v>
+      </c>
+      <c r="C686" t="n">
+        <v>91</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>3</v>
+      </c>
+      <c r="B687" s="1" t="n">
+        <v>0.9436736035648149</v>
+      </c>
+      <c r="C687" t="n">
+        <v>91</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.00708</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>4</v>
+      </c>
+      <c r="B688" s="1" t="n">
+        <v>0.9443684555671297</v>
+      </c>
+      <c r="C688" t="n">
+        <v>91</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>5</v>
+      </c>
+      <c r="B689" s="1" t="n">
+        <v>0.9450624544212963</v>
+      </c>
+      <c r="C689" t="n">
+        <v>91</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.00612</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>6</v>
+      </c>
+      <c r="B690" s="1" t="n">
+        <v>0.9457568102546297</v>
+      </c>
+      <c r="C690" t="n">
+        <v>91</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>7</v>
+      </c>
+      <c r="B691" s="1" t="n">
+        <v>0.9464517184143519</v>
+      </c>
+      <c r="C691" t="n">
+        <v>91</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.00468</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>8</v>
+      </c>
+      <c r="B692" s="1" t="n">
+        <v>0.9471446169907407</v>
+      </c>
+      <c r="C692" t="n">
+        <v>91</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.00408</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>9</v>
+      </c>
+      <c r="B693" s="1" t="n">
+        <v>0.9478399858333333</v>
+      </c>
+      <c r="C693" t="n">
+        <v>91</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.00372</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>11</v>
+      </c>
+      <c r="B694" s="1" t="n">
+        <v>0.9492268977083334</v>
+      </c>
+      <c r="C694" t="n">
+        <v>91</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>14</v>
+      </c>
+      <c r="B695" s="1" t="n">
+        <v>0.9513105775578704</v>
+      </c>
+      <c r="C695" t="n">
+        <v>91</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.00264</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>15</v>
+      </c>
+      <c r="B696" s="1" t="n">
+        <v>0.9520035592245369</v>
+      </c>
+      <c r="C696" t="n">
+        <v>91</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.00264</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>17</v>
+      </c>
+      <c r="B697" s="1" t="n">
+        <v>0.9533927872222222</v>
+      </c>
+      <c r="C697" t="n">
+        <v>91</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.00228</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>18</v>
+      </c>
+      <c r="B698" s="1" t="n">
+        <v>0.9540861342708332</v>
+      </c>
+      <c r="C698" t="n">
+        <v>91</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.00204</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>19</v>
+      </c>
+      <c r="B699" s="1" t="n">
+        <v>0.9547806418402779</v>
+      </c>
+      <c r="C699" t="n">
+        <v>91</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>22</v>
+      </c>
+      <c r="B700" s="1" t="n">
+        <v>0.9568624188773148</v>
+      </c>
+      <c r="C700" t="n">
+        <v>91</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.0007199999999999999</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>23</v>
+      </c>
+      <c r="B701" s="1" t="n">
+        <v>0.9575573790740741</v>
+      </c>
+      <c r="C701" t="n">
+        <v>91</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>24</v>
+      </c>
+      <c r="B702" s="1" t="n">
+        <v>0.9582513534606482</v>
+      </c>
+      <c r="C702" t="n">
+        <v>91</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>25</v>
+      </c>
+      <c r="B703" s="1" t="n">
+        <v>0.9589454690162037</v>
+      </c>
+      <c r="C703" t="n">
+        <v>91</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.00054</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>26</v>
+      </c>
+      <c r="B704" s="1" t="n">
+        <v>0.9596382308333332</v>
+      </c>
+      <c r="C704" t="n">
+        <v>91</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>27</v>
+      </c>
+      <c r="B705" s="1" t="n">
+        <v>0.9603329327662037</v>
+      </c>
+      <c r="C705" t="n">
+        <v>91</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>28</v>
+      </c>
+      <c r="B706" s="1" t="n">
+        <v>0.961027993125</v>
+      </c>
+      <c r="C706" t="n">
+        <v>91</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.0004800000000000001</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>29</v>
+      </c>
+      <c r="B707" s="1" t="n">
+        <v>0.961720852175926</v>
+      </c>
+      <c r="C707" t="n">
+        <v>91</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>30</v>
+      </c>
+      <c r="B708" s="1" t="n">
+        <v>0.9624143652083333</v>
+      </c>
+      <c r="C708" t="n">
+        <v>91</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>31</v>
+      </c>
+      <c r="B709" s="1" t="n">
+        <v>0.9631089123611111</v>
+      </c>
+      <c r="C709" t="n">
+        <v>91</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>32</v>
+      </c>
+      <c r="B710" s="1" t="n">
+        <v>0.9638024726504629</v>
+      </c>
+      <c r="C710" t="n">
+        <v>91</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>34</v>
+      </c>
+      <c r="B711" s="1" t="n">
+        <v>0.9651919597222222</v>
+      </c>
+      <c r="C711" t="n">
+        <v>91</v>
+      </c>
+      <c r="D711" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E711" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.0004800000000000001</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>35</v>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>0.9658861789236111</v>
+      </c>
+      <c r="C712" t="n">
+        <v>91</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E712" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.00084</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>36</v>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>0.9665816801388889</v>
+      </c>
+      <c r="C713" t="n">
+        <v>91</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>37</v>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>0.9672737614583334</v>
+      </c>
+      <c r="C714" t="n">
+        <v>91</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.0007199999999999999</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>38</v>
+      </c>
+      <c r="B715" s="1" t="n">
+        <v>0.9679681577546295</v>
+      </c>
+      <c r="C715" t="n">
+        <v>91</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>39</v>
+      </c>
+      <c r="B716" s="1" t="n">
+        <v>0.9686643324537038</v>
+      </c>
+      <c r="C716" t="n">
+        <v>91</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>41</v>
+      </c>
+      <c r="B717" s="1" t="n">
+        <v>0.9700485870833333</v>
+      </c>
+      <c r="C717" t="n">
+        <v>91</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.0007199999999999999</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>42</v>
+      </c>
+      <c r="B718" s="1" t="n">
+        <v>0.9707460932986112</v>
+      </c>
+      <c r="C718" t="n">
+        <v>91</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>43</v>
+      </c>
+      <c r="B719" s="1" t="n">
+        <v>0.9714409617245371</v>
+      </c>
+      <c r="C719" t="n">
+        <v>91</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.00036</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>46</v>
+      </c>
+      <c r="B720" s="1" t="n">
+        <v>0.9735187819328703</v>
+      </c>
+      <c r="C720" t="n">
+        <v>91</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>48</v>
+      </c>
+      <c r="B721" s="1" t="n">
+        <v>0.9749077065046297</v>
+      </c>
+      <c r="C721" t="n">
+        <v>91</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E721" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.00012</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>49</v>
+      </c>
+      <c r="B722" s="1" t="n">
+        <v>0.9756047069097222</v>
+      </c>
+      <c r="C722" t="n">
+        <v>91</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F722" t="n">
+        <v>6.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>50</v>
+      </c>
+      <c r="B723" s="1" t="n">
+        <v>0.9762974565162036</v>
+      </c>
+      <c r="C723" t="n">
+        <v>91</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F723" t="n">
+        <v>6.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>51</v>
+      </c>
+      <c r="B724" s="1" t="n">
+        <v>0.9769894506828705</v>
+      </c>
+      <c r="C724" t="n">
+        <v>91</v>
+      </c>
+      <c r="D724" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>52</v>
+      </c>
+      <c r="B725" s="1" t="n">
+        <v>0.9776837154861111</v>
+      </c>
+      <c r="C725" t="n">
+        <v>91</v>
+      </c>
+      <c r="D725" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>53</v>
+      </c>
+      <c r="B726" s="1" t="n">
+        <v>0.9783769503587963</v>
+      </c>
+      <c r="C726" t="n">
+        <v>91</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>54</v>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>0.9790732821412037</v>
+      </c>
+      <c r="C727" t="n">
+        <v>91</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>56</v>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>0.9804597001388888</v>
+      </c>
+      <c r="C728" t="n">
+        <v>91</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>57</v>
+      </c>
+      <c r="B729" s="1" t="n">
+        <v>0.9811545582060185</v>
+      </c>
+      <c r="C729" t="n">
+        <v>91</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>58</v>
+      </c>
+      <c r="B730" s="1" t="n">
+        <v>0.9818481518402778</v>
+      </c>
+      <c r="C730" t="n">
+        <v>91</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>59</v>
+      </c>
+      <c r="B731" s="1" t="n">
+        <v>0.9825421083912037</v>
+      </c>
+      <c r="C731" t="n">
+        <v>91</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>60</v>
+      </c>
+      <c r="B732" s="1" t="n">
+        <v>0.9832366563888889</v>
+      </c>
+      <c r="C732" t="n">
+        <v>91</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>62</v>
+      </c>
+      <c r="B733" s="1" t="n">
+        <v>0.9846237262384259</v>
+      </c>
+      <c r="C733" t="n">
+        <v>91</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>63</v>
+      </c>
+      <c r="B734" s="1" t="n">
+        <v>0.9853196532638889</v>
+      </c>
+      <c r="C734" t="n">
+        <v>91</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>66</v>
+      </c>
+      <c r="B735" s="1" t="n">
+        <v>0.9874001211342591</v>
+      </c>
+      <c r="C735" t="n">
+        <v>91</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>67</v>
+      </c>
+      <c r="B736" s="1" t="n">
+        <v>0.9880956072569445</v>
+      </c>
+      <c r="C736" t="n">
+        <v>91</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>68</v>
+      </c>
+      <c r="B737" s="1" t="n">
+        <v>0.9887890959490742</v>
+      </c>
+      <c r="C737" t="n">
+        <v>91</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>69</v>
+      </c>
+      <c r="B738" s="1" t="n">
+        <v>0.9894822631481481</v>
+      </c>
+      <c r="C738" t="n">
+        <v>91</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>71</v>
+      </c>
+      <c r="B739" s="1" t="n">
+        <v>0.9908711231249999</v>
+      </c>
+      <c r="C739" t="n">
+        <v>91</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>73</v>
+      </c>
+      <c r="B740" s="1" t="n">
+        <v>0.9922590158796296</v>
+      </c>
+      <c r="C740" t="n">
+        <v>91</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>74</v>
+      </c>
+      <c r="B741" s="1" t="n">
+        <v>0.9929525854282407</v>
+      </c>
+      <c r="C741" t="n">
+        <v>91</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0</v>
+      </c>
+      <c r="F741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>77</v>
+      </c>
+      <c r="B742" s="1" t="n">
+        <v>0.9950362369791667</v>
+      </c>
+      <c r="C742" t="n">
+        <v>91</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0</v>
+      </c>
+      <c r="F742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>79</v>
+      </c>
+      <c r="B743" s="1" t="n">
+        <v>0.9964249100231481</v>
+      </c>
+      <c r="C743" t="n">
+        <v>91</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0</v>
+      </c>
+      <c r="F743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>83</v>
+      </c>
+      <c r="B744" s="1" t="n">
+        <v>0.9992003224421296</v>
+      </c>
+      <c r="C744" t="n">
+        <v>91</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>84</v>
+      </c>
+      <c r="B745" s="1" t="n">
+        <v>0.9998952215625</v>
+      </c>
+      <c r="C745" t="n">
+        <v>91</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
